--- a/Child/Analysis/SummaryTestVc - Lag1.xlsx
+++ b/Child/Analysis/SummaryTestVc - Lag1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="49">
   <si>
     <t>FirmSize</t>
   </si>
@@ -66,6 +66,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>+*</t>
+  </si>
+  <si>
+    <t>-**</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -90,16 +96,85 @@
     <t>G</t>
   </si>
   <si>
+    <t>+***</t>
+  </si>
+  <si>
     <t>SPL</t>
   </si>
   <si>
     <t>WatP</t>
   </si>
   <si>
-    <t>CapP</t>
+    <t>+**</t>
+  </si>
+  <si>
+    <t>-***</t>
+  </si>
+  <si>
+    <t>0,28</t>
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>0,123</t>
+  </si>
+  <si>
+    <t>0,268</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
+    <t>-0,007</t>
+  </si>
+  <si>
+    <t>0,03</t>
+  </si>
+  <si>
+    <t>0,125</t>
+  </si>
+  <si>
+    <t>0,275</t>
+  </si>
+  <si>
+    <t>0,028</t>
+  </si>
+  <si>
+    <t>0,032</t>
+  </si>
+  <si>
+    <t>0,129</t>
+  </si>
+  <si>
+    <t>0,164</t>
+  </si>
+  <si>
+    <t>0,027</t>
+  </si>
+  <si>
+    <t>0,131</t>
+  </si>
+  <si>
+    <t>0,282</t>
+  </si>
+  <si>
+    <t>0,278</t>
+  </si>
+  <si>
+    <t>0,138</t>
+  </si>
+  <si>
+    <t>0,292</t>
+  </si>
+  <si>
+    <t>0,041</t>
+  </si>
+  <si>
+    <t>0,884</t>
+  </si>
+  <si>
+    <t>0,034</t>
   </si>
 </sst>
 </file>
@@ -453,7 +528,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,28 +540,28 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -518,6 +593,7 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -547,6 +623,7 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -572,6 +649,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -597,6 +675,7 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -653,7 +732,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -668,14 +747,30 @@
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -692,7 +787,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -705,7 +800,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -741,12 +836,30 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -758,7 +871,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,28 +883,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,46 +1054,90 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -993,29 +1150,53 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
@@ -1025,10 +1206,30 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
@@ -1044,7 +1245,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,28 +1258,28 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1245,7 +1446,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1260,14 +1461,30 @@
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1284,7 +1501,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1297,7 +1514,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1333,15 +1550,34 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>2.7723999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1350,7 +1586,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,28 +1602,28 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,7 +1791,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1594,7 +1830,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1607,7 +1843,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1642,7 +1878,9 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="10"/>
@@ -1658,7 +1896,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,28 +1910,28 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1854,12 +2092,14 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1867,7 +2107,9 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1893,25 +2135,43 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1919,7 +2179,9 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1932,7 +2194,9 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1946,11 +2210,30 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G16">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
